--- a/simulation_data/one_step_algorithm/1s_error_level_2_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_2_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.05710266710614</v>
+        <v>89.98570647369529</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4595606094445656</v>
+        <v>0.4411272568094841</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.8797710908006</v>
+        <v>88.99926448615129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.461703435985677</v>
+        <v>0.5636240330825746</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.05152607168675</v>
+        <v>87.99529688366491</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4702275102500983</v>
+        <v>0.5015947333518269</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.99540379508186</v>
+        <v>87.01750543981866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.513073375347728</v>
+        <v>0.4752860832362403</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.95001395228017</v>
+        <v>85.99169442744267</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4782151034357975</v>
+        <v>0.4929319238506012</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.96159940725219</v>
+        <v>84.97359504913251</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5073800016133818</v>
+        <v>0.4438354066592665</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.02340509179189</v>
+        <v>83.89611659577753</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6001991204095064</v>
+        <v>0.5023392745913401</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.95230918371477</v>
+        <v>82.96281507409626</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4983958658687193</v>
+        <v>0.4887329885800827</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.98513520423481</v>
+        <v>81.99407101099851</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5530767851338416</v>
+        <v>0.4583752427315045</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.02404188073962</v>
+        <v>81.02231908570865</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5406553520723292</v>
+        <v>0.5447072724489844</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.99450777688955</v>
+        <v>80.07531194029485</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5078352804956163</v>
+        <v>0.5558789137621021</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.98979374840627</v>
+        <v>78.96146623727589</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5081275119504213</v>
+        <v>0.5315046318605298</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.90372541206953</v>
+        <v>78.03129938869229</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5063543518688153</v>
+        <v>0.5229636319571876</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.98987891094737</v>
+        <v>77.07735022203117</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4629569166209761</v>
+        <v>0.5056544826109667</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02008480115799</v>
+        <v>75.95712515273766</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4263622114391343</v>
+        <v>0.5103145555827094</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.9804421944698</v>
+        <v>74.97005001024324</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5717114523685848</v>
+        <v>0.4664364138664609</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.00110742827887</v>
+        <v>74.04857916088058</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6581697857392637</v>
+        <v>0.5681099387665449</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.03077367348428</v>
+        <v>72.95790161956604</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4885179977474499</v>
+        <v>0.5035400051111899</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.03442586621597</v>
+        <v>71.91860675027884</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5228098272629669</v>
+        <v>0.5616210157676853</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.0023792444545</v>
+        <v>70.97439156620879</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5662421149993804</v>
+        <v>0.5473441014941498</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.04369660434553</v>
+        <v>69.95741935637592</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6055613526421479</v>
+        <v>0.5376279021584034</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.00713797386598</v>
+        <v>69.05003974099476</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6286071883811097</v>
+        <v>0.6167797224526491</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.99867515789784</v>
+        <v>67.9023887453175</v>
       </c>
       <c r="D24" t="n">
-        <v>0.611609356704984</v>
+        <v>0.6022743662939886</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.09851738946666</v>
+        <v>66.92654565894946</v>
       </c>
       <c r="D25" t="n">
-        <v>0.560486764490599</v>
+        <v>0.458691413615681</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.98901851065682</v>
+        <v>66.01941253443539</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5650233316998523</v>
+        <v>0.6333341385406446</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.00361194966229</v>
+        <v>65.11350044680177</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5267353538859866</v>
+        <v>0.5676630450964694</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.91672232102196</v>
+        <v>64.07888369112612</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5493264323397341</v>
+        <v>0.5181502949448024</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.0517652137947</v>
+        <v>63.05516017354136</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5744871226277449</v>
+        <v>0.6212338691310445</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.93371970253065</v>
+        <v>62.02408801426349</v>
       </c>
       <c r="D30" t="n">
-        <v>0.598462906340272</v>
+        <v>0.5919805201318904</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.00875310034927</v>
+        <v>60.94146105658955</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5632722851341515</v>
+        <v>0.603608513509309</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.92972376266747</v>
+        <v>60.0819202175405</v>
       </c>
       <c r="D32" t="n">
-        <v>0.598307164239072</v>
+        <v>0.5877108048329837</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.97590884500784</v>
+        <v>59.09484019817872</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5354464006315618</v>
+        <v>0.6128944872920702</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.95977807774337</v>
+        <v>58.04946187258841</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6031376376400446</v>
+        <v>0.6165591832449857</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.04252703929681</v>
+        <v>57.00335252400623</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5770661149625002</v>
+        <v>0.5851453873154752</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.00088686913016</v>
+        <v>55.97475043967368</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5295407239047153</v>
+        <v>0.6237422564512425</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.99352970479534</v>
+        <v>55.01191238700293</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5917552368097272</v>
+        <v>0.5442749655643965</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.96976807635211</v>
+        <v>53.91821123557462</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6197117840062384</v>
+        <v>0.5826768226275109</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.89510834121289</v>
+        <v>52.94660943771035</v>
       </c>
       <c r="D39" t="n">
-        <v>0.707579908651538</v>
+        <v>0.6038823860116425</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.99097038576352</v>
+        <v>52.03349963698335</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5635640998217613</v>
+        <v>0.525222175719509</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.99970669055252</v>
+        <v>51.0297136160765</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5460546467112565</v>
+        <v>0.6600944807290422</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.97925676663737</v>
+        <v>50.01000047404676</v>
       </c>
       <c r="D42" t="n">
-        <v>0.506926382871839</v>
+        <v>0.597182203222186</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.92116858455418</v>
+        <v>49.01928924246236</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6015262220430151</v>
+        <v>0.6824683688413652</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.97365839007371</v>
+        <v>47.99366833527965</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5976184909603433</v>
+        <v>0.6932682136166309</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.88041747705893</v>
+        <v>47.00045469554938</v>
       </c>
       <c r="D45" t="n">
-        <v>0.624002830552506</v>
+        <v>0.6374805410671872</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.91794786606621</v>
+        <v>45.98167537658177</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6139733647563936</v>
+        <v>0.5329525938248091</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.84989710050182</v>
+        <v>44.95571185014359</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5982939445351541</v>
+        <v>0.6092257400759346</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.98145613586443</v>
+        <v>43.94870022118607</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6737163340725965</v>
+        <v>0.680869098027305</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.00356303697729</v>
+        <v>43.06838744205067</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6187212034197476</v>
+        <v>0.5905765113849677</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.02750725893627</v>
+        <v>42.00243206966622</v>
       </c>
       <c r="D50" t="n">
-        <v>0.620758394905444</v>
+        <v>0.6102341435461603</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.93506227107677</v>
+        <v>40.92588329851476</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6074300570956781</v>
+        <v>0.6386210956015044</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.93056675123711</v>
+        <v>40.07652407211688</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5644943172302759</v>
+        <v>0.7001855670536237</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.86466754433732</v>
+        <v>38.95364358121023</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5745285579303547</v>
+        <v>0.6410864334246078</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.01147328702261</v>
+        <v>38.02457461678077</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6535089745167163</v>
+        <v>0.6301010623125762</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.91349650577035</v>
+        <v>36.96396396296036</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7262595137085902</v>
+        <v>0.7212106951845003</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.86243390773956</v>
+        <v>35.90905566219441</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6717690990085148</v>
+        <v>0.6914239392138734</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.99903902662845</v>
+        <v>35.02144475281144</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6960158695516453</v>
+        <v>0.7485304822346684</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.06558052408609</v>
+        <v>33.88600968442993</v>
       </c>
       <c r="D58" t="n">
-        <v>0.725367902984141</v>
+        <v>0.6635536178448878</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.95804838580845</v>
+        <v>33.00296709755784</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7002114753575251</v>
+        <v>0.7700347160315073</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.97823822109273</v>
+        <v>32.06230802614548</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6293397961867161</v>
+        <v>0.6208976375450822</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.11526446692095</v>
+        <v>30.98708944375754</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7165178044878679</v>
+        <v>0.5923058152460215</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.99239729224946</v>
+        <v>30.04524998980693</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6948185814342139</v>
+        <v>0.7346575642043712</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.0291880917773</v>
+        <v>29.05059201398508</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7153457142281685</v>
+        <v>0.7605138670208016</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.94089789021164</v>
+        <v>27.91124540679318</v>
       </c>
       <c r="D64" t="n">
-        <v>0.611425840313421</v>
+        <v>0.7485681596223959</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.83720922607638</v>
+        <v>26.98255471862137</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6166588886266718</v>
+        <v>0.6847668499203271</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.95419503193256</v>
+        <v>26.01840242828607</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7662474142606043</v>
+        <v>0.7283482560071577</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.87009364060373</v>
+        <v>25.11804382484083</v>
       </c>
       <c r="D67" t="n">
-        <v>0.623722331811061</v>
+        <v>0.6545864003446509</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.99812325995109</v>
+        <v>23.92777835844901</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6472757504343229</v>
+        <v>0.7705164487269309</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.89398084064878</v>
+        <v>23.02353441083165</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6798801803348028</v>
+        <v>0.6885794119900853</v>
       </c>
     </row>
   </sheetData>
